--- a/result_KR.xlsx
+++ b/result_KR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,58 +509,1502 @@
           <t>B-Score</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Moat</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>000270.KS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Kia Corporation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>91200</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.06441</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.549</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.19092</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.09132</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K2" t="n">
+        <v>124.81</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Strong(2)</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Samsung Electronics Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>55700</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.02741</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.467</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.09228</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.04153</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Strong(2)</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>012330.KS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hyundai Mobis Co.,Ltd</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>247500</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.07707</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.09358</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03069</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Narrow(1)</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SK hynix Inc.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>200500</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.31906</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.37954</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.15418</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Strong(2)</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>005380.KS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hyundai Motor Company</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>188000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.291</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1169</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.027980002</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K6" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Strong(2)</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>035420.KS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NAVER Corporation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>184800</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.15712</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.06847</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.03404</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="K7" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Strong(2)</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>005935.KS</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Samsung Electronics Co., Ltd.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D8" t="n">
         <v>46050</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E8" t="n">
         <v>0.02741</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F8" t="n">
         <v>2.467</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.09228</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I8" t="n">
         <v>0.04153</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>36.2</v>
       </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
         <v>5</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Strong(2)</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>207940.KS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Samsung Biologics Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.13629</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.104490004</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.049429998</v>
+      </c>
+      <c r="J9" t="n">
+        <v>72.27</v>
+      </c>
+      <c r="K9" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Strong(2)</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>009540.KS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HD Korea Shipbuilding &amp; Offshore Engineering Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>291500</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.15497</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.13858</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.03681</v>
+      </c>
+      <c r="J10" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Strong(2)</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>005387.KS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hyundai Motor Company</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>150100</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.291</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1169</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.027980002</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Strong(2)</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>068270.KS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Celltrion, Inc.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>156600</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.12473</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.02414</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="J12" t="n">
+        <v>80.06</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Narrow(1)</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>012450.KS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hanwha Aerospace Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>850000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.2298</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.36983</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.04161</v>
+      </c>
+      <c r="J13" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Strong(2)</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>005389.KS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hyundai Motor Company</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>149700</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.291</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1169</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.027980002</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Strong(2)</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>028260.KS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Samsung C&amp;T Corporation</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>139000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.12377</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.368</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.07185999999999999</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.02898</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Narrow(1)</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>105560.KS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>KB Financial Group Inc.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>98000</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.09505</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0075499997</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Strong(2)</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>011200.KS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HMM Co.,Ltd</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>22350</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.15324</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.16061</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.07527</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K17" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>None(0)</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>005385.KS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hyundai Motor Company</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>149100</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.291</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1169</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.027980002</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Narrow(1)</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>138040.KS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Meritz Financial Group Inc.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>112000</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.22194</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.021429999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Narrow(1)</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>02826K.KS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Samsung C&amp;T Corporation</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>103000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.12377</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.368</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.07185999999999999</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.02898</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>None(0)</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>373220.KS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LG Energy Solution, Ltd.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>277500</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.56324</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.653</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.012200001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.00587</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Strong(2)</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>042660.KS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Hanwha Ocean Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>79200</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.11115</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.119</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.14661999</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01679</v>
+      </c>
+      <c r="J22" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Strong(2)</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>329180.KS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HD Hyundai Heavy Industries Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>399000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.20759</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.11391</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0239</v>
+      </c>
+      <c r="J23" t="n">
+        <v>56.99</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>None(0)</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>055550.KS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Shinhan Financial Group Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>53800</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.081429996</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.00649</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>None(0)</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>034020.KS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Doosan Enerbility Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>39100</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.57882</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.00978</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.01845</v>
+      </c>
+      <c r="J25" t="n">
+        <v>224.71</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>None(0)</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>048260.KQ</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>048260.KQ</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>None(0)</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/result_KR.xlsx
+++ b/result_KR.xlsx
@@ -513,12 +513,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000660.KS</t>
+          <t>005930.KS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SK hynix Inc.</t>
+          <t>Samsung Electronics Co., Ltd.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -527,28 +527,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>196900</v>
+        <v>54200</v>
       </c>
       <c r="E2" t="n">
-        <v>0.31906</v>
+        <v>0.02741</v>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>2.467</v>
       </c>
       <c r="G2" t="n">
-        <v>1.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.37954</v>
+        <v>0.09228</v>
       </c>
       <c r="I2" t="n">
-        <v>0.15418</v>
+        <v>0.04153</v>
       </c>
       <c r="J2" t="n">
-        <v>6.85</v>
+        <v>10.95</v>
       </c>
       <c r="K2" t="n">
-        <v>17.44</v>
+        <v>36.2</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -566,12 +566,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>005930.KS</t>
+          <t>000660.KS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samsung Electronics Co., Ltd.</t>
+          <t>SK hynix Inc.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -580,28 +580,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>54700</v>
+        <v>200000</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02741</v>
+        <v>0.31906</v>
       </c>
       <c r="F3" t="n">
-        <v>2.467</v>
+        <v>1.66</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.86</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09228</v>
+        <v>0.37954</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04153</v>
+        <v>0.15418</v>
       </c>
       <c r="J3" t="n">
-        <v>11.05</v>
+        <v>6.96</v>
       </c>
       <c r="K3" t="n">
-        <v>36.2</v>
+        <v>17.44</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>45500</v>
+        <v>44900</v>
       </c>
       <c r="E4" t="n">
         <v>0.02741</v>

--- a/result_KR.xlsx
+++ b/result_KR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,160 +513,5111 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>005930.KS</t>
+          <t>000270.KS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Samsung Electronics Co., Ltd.</t>
+          <t>Kia Corporation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>54200</v>
+        <v>87100</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02741</v>
+        <v>0.06441</v>
       </c>
       <c r="F2" t="n">
-        <v>2.467</v>
+        <v>1.549</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09228</v>
+        <v>0.19092</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04153</v>
+        <v>0.09132</v>
       </c>
       <c r="J2" t="n">
-        <v>10.95</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>36.2</v>
+        <v>124.81</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>000660.KS</t>
+          <t>086280.KS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SK hynix Inc.</t>
+          <t>Hyundai Glovis Co., Ltd.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>200000</v>
+        <v>106500</v>
       </c>
       <c r="E3" t="n">
-        <v>0.31906</v>
+        <v>0.4631</v>
       </c>
       <c r="F3" t="n">
-        <v>1.66</v>
+        <v>1.857</v>
       </c>
       <c r="G3" t="n">
-        <v>1.86</v>
+        <v>0.91</v>
       </c>
       <c r="H3" t="n">
-        <v>0.37954</v>
+        <v>0.13252</v>
       </c>
       <c r="I3" t="n">
-        <v>0.15418</v>
+        <v>0.06937</v>
       </c>
       <c r="J3" t="n">
-        <v>6.96</v>
+        <v>7.3</v>
       </c>
       <c r="K3" t="n">
-        <v>17.44</v>
+        <v>9.27</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
       <c r="M3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>012330.KS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hyundai Mobis Co.,Ltd</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>242000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.07707</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.09358</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03069</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>402340.KS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SK Square Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>99100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.00061</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.26416</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.12204</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="K5" t="n">
+        <v>223.13</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>042700.KS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HANMI Semiconductor Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>78400</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00522</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.24051</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.25445998</v>
+      </c>
+      <c r="J6" t="n">
+        <v>49.34</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2215.54</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SK hynix Inc.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.31906</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.37954</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.15418</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Samsung Electronics Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>54200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02741</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.467</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.09228</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.04153</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>267260.KS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HD Hyundai Electric Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>386000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.23335</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.381</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.38869</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1247</v>
+      </c>
+      <c r="J9" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>003550.KS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LG Corp.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>67500</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.02465</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.028670002</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01948</v>
+      </c>
+      <c r="J10" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="K10" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>079550.KS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LIG Nex1 Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>427000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.35267</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.18923001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.028889999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>41.97</v>
+      </c>
+      <c r="K11" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>010120.KS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LS ELECTRIC Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>254500</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6460399999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.661</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.13372</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.05909</v>
+      </c>
+      <c r="J12" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>443060.KS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HDHMS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>160300</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.416</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.51682997</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="K13" t="n">
+        <v>59.77</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>021240.KS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>COWAY Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>95100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.46334</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.19385</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.09368</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>207940.KS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Samsung Biologics Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1016000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.13629</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.104490004</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.049429998</v>
+      </c>
+      <c r="J15" t="n">
+        <v>66.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>068270.KS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Celltrion, Inc.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>152700</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.12473</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.02414</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="J16" t="n">
+        <v>78.06999999999999</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>028260.KS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Samsung C&amp;T Corporation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>142000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.12377</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.368</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.07185999999999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.02898</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K17" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>005935.KS</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Samsung Electronics Co., Ltd.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D18" t="n">
         <v>44900</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E18" t="n">
         <v>0.02741</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F18" t="n">
         <v>2.467</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.09228</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I18" t="n">
         <v>0.04153</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>36.2</v>
       </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>035420.KS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NAVER Corporation</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>183100</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.15712</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.06847</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.03404</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="K19" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>005380.KS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hyundai Motor Company</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>179900</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.291</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1169</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.027980002</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="K20" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>009540.KS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HD Korea Shipbuilding &amp; Offshore Engineering Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>288500</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.15497</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.13858</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.03681</v>
+      </c>
+      <c r="J21" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>011200.KS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HMM Co.,Ltd</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>22200</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.15324</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.16061</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.07527</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K22" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>196170.KQ</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ALTEOGEN Inc.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>323000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.11078</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11.576</v>
+      </c>
+      <c r="G23" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.34687</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.09347</v>
+      </c>
+      <c r="J23" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>37.64</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>259960.KS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>KRAFTON, Inc.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>379500</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.03306</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.376</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.21030001</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.10288999</v>
+      </c>
+      <c r="J24" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="K24" t="n">
+        <v>125.03</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>064350.KS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hyundai Rotem Company</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>125400</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.12027</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.293</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.26398</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.07427</v>
+      </c>
+      <c r="J25" t="n">
+        <v>33.64</v>
+      </c>
+      <c r="K25" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>003555.KS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LG Corp.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>57300</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.02465</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.028670002</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.01948</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>009150.KS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Samsung Electro-Mechanics Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>117300</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.18146</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.07802000000000001</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.03758</v>
+      </c>
+      <c r="J27" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="K27" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>003230.KS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Samyang Foods Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1143000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.38749</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.39171</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.17101</v>
+      </c>
+      <c r="J28" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="K28" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>090435.KS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Amorepacific Corporation</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>40450</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.08265</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.11798</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.02175</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>090430.KS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Amorepacific Corporation</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>135300</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.08265</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.11798</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.02175</v>
+      </c>
+      <c r="J30" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="K30" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>326030.KS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SK Biopharmaceuticals Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>89800</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.21076</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.838</v>
+      </c>
+      <c r="G31" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.50862</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.07786</v>
+      </c>
+      <c r="J31" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="K31" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>000720.KS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Hyundai Engineering &amp; Construction Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>54200</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.34719</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.07615</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-0.0311</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-12.47</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>005387.KS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Hyundai Motor Company</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>146700</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.291</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1169</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.027980002</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>105560.KS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KB Financial Group Inc.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>99000</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.09505</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0075499997</v>
+      </c>
+      <c r="J34" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>005389.KS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Hyundai Motor Company</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>146000</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.291</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.1169</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.027980002</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>012450.KS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Hanwha Aerospace Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>830000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.2298</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.36983</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.04161</v>
+      </c>
+      <c r="J36" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="K36" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>005385.KS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Hyundai Motor Company</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>145800</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.291</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.1169</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.027980002</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>02826K.KS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Samsung C&amp;T Corporation</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>107100</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.12377</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.368</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.07185999999999999</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.02898</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>000810.KS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>380000</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.02008</v>
+      </c>
+      <c r="F39" t="n">
+        <v>27.211</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.13084</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.01844</v>
+      </c>
+      <c r="J39" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>005490.KS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>POSCO Holdings Inc.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>233500</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.44088</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.01314</v>
+      </c>
+      <c r="J40" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>033780.KS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>KT&amp;G Corporation</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>119400</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>2.085</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="K41" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>024110.KS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Industrial Bank of Korea</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>15360</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.08037999999999999</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.00577</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>018260.KS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Samsung SDS Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>130500</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>3.488</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.08427</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.046240002</v>
+      </c>
+      <c r="J43" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="K43" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>009155.KS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Samsung Electro-Mechanics Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>53300</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.18146</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.07802000000000001</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.03758</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>272210.KS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Hanwha Systems Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>45250</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.19713</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.16141</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.02029</v>
+      </c>
+      <c r="J45" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="K45" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>000105.KS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yuhan Corporation</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>97400</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.14161</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.197</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.02595</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.01192</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>000100.KS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yuhan Corporation</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>104000</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.14161</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.197</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.02595</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.01192</v>
+      </c>
+      <c r="J47" t="n">
+        <v>110.29</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>329180.KS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>HD Hyundai Heavy Industries Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>389000</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.20759</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.11391</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0239</v>
+      </c>
+      <c r="J48" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>055550.KS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Shinhan Financial Group Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>55100</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.081429996</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.00649</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>086790.KS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Hana Financial Group Inc.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>68700</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="b">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>138040.KS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Meritz Financial Group Inc.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>109200</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.22194</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.021429999</v>
+      </c>
+      <c r="J51" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="b">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>000815.KS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>284000</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.02008</v>
+      </c>
+      <c r="F52" t="n">
+        <v>27.211</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.13084</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.01844</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Kakao Corp.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>37400</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.30354</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0.01163</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.01097</v>
+      </c>
+      <c r="J53" t="n">
+        <v>296.83</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>1</v>
+      </c>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>316140.KS</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Woori Financial Group Inc.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>18070</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.08603</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0057599996</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="b">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>006400.KS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Samsung SDI Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>160200</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.54954</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.00087</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-0.00775</v>
+      </c>
+      <c r="J55" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>1</v>
+      </c>
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>030200.KS</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>KT Corporation</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.60909</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.03201</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="J56" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="K56" t="n">
+        <v>73.66</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>352820.KS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>HYBE Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>285500</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.31056</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.151</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.00104</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.02125</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1268.89</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>LG Electronics Inc.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5779299999999999</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3.298</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.04652</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>34.38</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="b">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>017670.KS</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SK Telecom Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>50700</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.57792</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.11368</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.03808</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>047810.KS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Korea Aerospace Industries, Ltd.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>87600</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.62214</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.107</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.102110006</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.01984</v>
+      </c>
+      <c r="J60" t="n">
+        <v>49.63</v>
+      </c>
+      <c r="K60" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>18064K.KS</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Hanjin Kal</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>37600</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.19537</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.16610001</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.00784</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>003490.KS</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Korean Airlines Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>22600</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.80876</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.12618</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.03181</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>180640.KS</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Hanjin Kal</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>120100</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.19537</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.16610001</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.00784</v>
+      </c>
+      <c r="J63" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>047050.KS</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Posco International Corporation</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>45900</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.8582299999999999</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.07205</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.04034</v>
+      </c>
+      <c r="J64" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <v>1</v>
+      </c>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+      <c r="O64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>006800.KS</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Mirae Asset Securities Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>13590</v>
+      </c>
+      <c r="E65" t="n">
+        <v>7.05972</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.085760005</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0075199995</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>015760.KS</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Korea Electric Power Corporation</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>30700</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.29545</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.092130005</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.02149</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>032830.KS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Samsung Life Insurance Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>92000</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.72934</v>
+      </c>
+      <c r="F67" t="n">
+        <v>42.656</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.05865</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.00316</v>
+      </c>
+      <c r="J67" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
+        <v>1</v>
+      </c>
+      <c r="N67" t="b">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>010130.KS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Korea Zinc Company, Ltd.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>778000</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.37948</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.028080001</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.03911</v>
+      </c>
+      <c r="J68" t="n">
+        <v>82</v>
+      </c>
+      <c r="K68" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="b">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>006405.KS</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Samsung SDI Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>96800</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.54954</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.00087</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-0.00775</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
+        <v>1</v>
+      </c>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>010140.KS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Samsung Heavy Industries Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>14430</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.94511</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.01505</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.01916</v>
+      </c>
+      <c r="J70" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>066575.KS</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>LG Electronics Inc.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>34500</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5779299999999999</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3.298</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.04652</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" t="b">
+        <v>1</v>
+      </c>
+      <c r="O71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>323410.KS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>KakaoBank Corp.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>22750</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.06952999999999999</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="J72" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="b">
+        <v>1</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>003495.KS</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Korean Airlines Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>22550</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.80876</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.12618</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.03181</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" t="b">
+        <v>1</v>
+      </c>
+      <c r="O73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>034730.KS</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SK Inc.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>137500</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.09823</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.00441</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.00611</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" t="b">
+        <v>1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>010620.KS</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Hd Hyundai Mipo Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>182600</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.08208</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.07851</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.02099</v>
+      </c>
+      <c r="J75" t="n">
+        <v>69.01000000000001</v>
+      </c>
+      <c r="K75" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="b">
+        <v>1</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>006805.KS</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Mirae Asset Securities Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>5900</v>
+      </c>
+      <c r="E76" t="n">
+        <v>7.05972</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.085760005</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.0075199995</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="b">
+        <v>1</v>
+      </c>
+      <c r="O76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>00680K.KS</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Mirae Asset Securities Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>5200</v>
+      </c>
+      <c r="E77" t="n">
+        <v>7.05972</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.085760005</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0075199995</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" t="b">
+        <v>1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>267250.KS</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>HD Hyundai Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>84000</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.64408</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.099</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.077800006</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.02619</v>
+      </c>
+      <c r="J78" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>010950.KS</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>S-Oil Corporation</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>50700</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8976900000000001</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" t="b">
+        <v>1</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>298040.KS</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Hyosung Heavy Industries Corporation</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.52686</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.13594</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.03463</v>
+      </c>
+      <c r="J80" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" t="b">
+        <v>1</v>
+      </c>
+      <c r="O80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>005940.KS</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>NH Investment &amp; Securities Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>16150</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" t="b">
+        <v>1</v>
+      </c>
+      <c r="O81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>373220.KS</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>LG Energy Solution, Ltd.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>268000</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.56324</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4.653</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.012200001</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.00587</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="b">
+        <v>1</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>042660.KS</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Hanwha Ocean Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>76000</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.11115</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.119</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.14661999</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.01679</v>
+      </c>
+      <c r="J83" t="n">
+        <v>46.12</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" t="b">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>034020.KS</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Doosan Enerbility Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>40800</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.57882</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.00978</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.01845</v>
+      </c>
+      <c r="J84" t="n">
+        <v>234.48</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" t="b">
+        <v>1</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>051910.KS</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>LG Chem, Ltd.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>182400</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.5703900000000001</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.319</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-0.0074</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.00669</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="b">
+        <v>0</v>
+      </c>
+      <c r="N85" t="b">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>096770.KS</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SK Innovation Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>81100</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.18864</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-0.06811</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.00014999999</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="b">
+        <v>0</v>
+      </c>
+      <c r="N86" t="b">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>247540.KQ</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Ecopro BM. Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>83600</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.9821800000000001</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.062</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-0.03272</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-0.00491</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+      <c r="N87" t="b">
+        <v>1</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>003670.KS</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Posco Future M Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>100100</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.10231</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.182</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-0.07869</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-0.00166</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" t="b">
+        <v>1</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>000150.KS</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Doosan Corporation</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>439000</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7641</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.02617</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.02093</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="b">
+        <v>0</v>
+      </c>
+      <c r="N89" t="b">
+        <v>1</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>028300.KQ</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>HLB Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>53300</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.24537</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="G90" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-0.17047001</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-0.09075</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-11.04</v>
+      </c>
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="b">
+        <v>0</v>
+      </c>
+      <c r="N90" t="b">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>000157.KS</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Doosan Corporation</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>331500</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.7641</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.02617</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.02093</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" t="b">
+        <v>1</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>000155.KS</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Doosan Corporation</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>280000</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.7641</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.02617</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.02093</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="b">
+        <v>0</v>
+      </c>
+      <c r="N92" t="b">
+        <v>1</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>03473K.KS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SK Inc.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>121900</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.09823</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.00441</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.00611</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
+        <v>0</v>
+      </c>
+      <c r="N93" t="b">
+        <v>1</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>010955.KS</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>S-Oil Corporation</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>34250</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.8976900000000001</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="b">
+        <v>0</v>
+      </c>
+      <c r="N94" t="b">
+        <v>1</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>005830.KS</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>DB Insurance Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>96600</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="b">
+        <v>0</v>
+      </c>
+      <c r="N95" t="b">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>048260.KQ</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>048260.KQ</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="b">
+        <v>0</v>
+      </c>
+      <c r="N96" t="b">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>051915.KS</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>LG Chem, Ltd.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>92900</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.5703900000000001</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.319</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-0.0074</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.00669</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="b">
+        <v>0</v>
+      </c>
+      <c r="N97" t="b">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>096775.KS</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SK Innovation Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>56200</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.18864</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-0.06811</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.00014999999</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="b">
+        <v>0</v>
+      </c>
+      <c r="N98" t="b">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>022100.KQ</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>022100.KQ</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="b">
+        <v>0</v>
+      </c>
+      <c r="N99" t="b">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>091990.KQ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>091990.KQ</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="b">
+        <v>0</v>
+      </c>
+      <c r="N100" t="b">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>010145.KS</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010145.KS</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="b">
+        <v>0</v>
+      </c>
+      <c r="N101" t="b">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/result_KR.xlsx
+++ b/result_KR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>Price(T)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -466,24 +466,24 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>PBR</t>
+          <t>P/B</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>ROE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ROA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>PER</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ICR</t>
@@ -507,6 +507,11 @@
       <c r="O1" s="1" t="inlineStr">
         <is>
           <t>B-Score(9)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Analysts Op.</t>
         </is>
       </c>
     </row>
@@ -523,11 +528,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>87100</v>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88,200 (50%)</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>0.06441</v>
@@ -536,16 +543,20 @@
         <v>1.549</v>
       </c>
       <c r="G2" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="H2" t="n">
-        <v>0.19092</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.09132</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>19.09%</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>9.13%</t>
+        </is>
       </c>
       <c r="K2" t="n">
         <v>124.81</v>
@@ -562,6 +573,11 @@
       <c r="O2" t="n">
         <v>9</v>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -576,11 +592,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>106500</v>
+          <t>Integrated Freight &amp; Logistics</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111,500 (41%)</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>0.4631</v>
@@ -589,16 +607,20 @@
         <v>1.857</v>
       </c>
       <c r="G3" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13252</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.06937</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7.3</v>
+        <v>7.64</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>13.25%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>6.94%</t>
+        </is>
       </c>
       <c r="K3" t="n">
         <v>9.27</v>
@@ -615,6 +637,11 @@
       <c r="O3" t="n">
         <v>8</v>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -629,29 +656,35 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>242000</v>
+          <t>Auto Parts</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>243,000 (35%)</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>0.07707</v>
+        <v>0.07833999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
       <c r="G4" t="n">
         <v>0.48</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09358</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.03069</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.39</v>
+        <v>5.41</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>9.6%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
       </c>
       <c r="K4" t="n">
         <v>23.78</v>
@@ -668,6 +701,11 @@
       <c r="O4" t="n">
         <v>7</v>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -682,11 +720,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>99100</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100,500 (19%)</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>0.00061</v>
@@ -695,16 +735,20 @@
         <v>2.184</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H5" t="n">
-        <v>0.26416</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.12204</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.57</v>
+        <v>3.62</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>26.42%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>12.2%</t>
+        </is>
       </c>
       <c r="K5" t="n">
         <v>223.13</v>
@@ -721,6 +765,11 @@
       <c r="O5" t="n">
         <v>7</v>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -735,11 +784,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>78400</v>
+          <t>Semiconductor Equipment &amp; Materials</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>82,300 (51%)</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>0.00522</v>
@@ -748,16 +799,20 @@
         <v>2.333</v>
       </c>
       <c r="G6" t="n">
-        <v>13.76</v>
+        <v>14.44</v>
       </c>
       <c r="H6" t="n">
-        <v>0.24051</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.25445998</v>
-      </c>
-      <c r="J6" t="n">
-        <v>49.34</v>
+        <v>51.79</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>24.05%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>25.45%</t>
+        </is>
       </c>
       <c r="K6" t="n">
         <v>2215.54</v>
@@ -774,6 +829,11 @@
       <c r="O6" t="n">
         <v>7</v>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -788,11 +848,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>200000</v>
+          <t>Semiconductors</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>202,500 (36%)</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>0.31906</v>
@@ -801,16 +863,20 @@
         <v>1.66</v>
       </c>
       <c r="G7" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="H7" t="n">
-        <v>0.37954</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.15418</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.96</v>
+        <v>7.05</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>37.95%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>15.42%</t>
+        </is>
       </c>
       <c r="K7" t="n">
         <v>17.44</v>
@@ -827,6 +893,11 @@
       <c r="O7" t="n">
         <v>6</v>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -841,11 +912,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>54200</v>
+          <t>Consumer Electronics</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53,900 (35%)</t>
+        </is>
       </c>
       <c r="E8" t="n">
         <v>0.02741</v>
@@ -854,16 +927,20 @@
         <v>2.467</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09228</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.04153</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10.95</v>
+        <v>10.89</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>9.23%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>4.15%</t>
+        </is>
       </c>
       <c r="K8" t="n">
         <v>36.2</v>
@@ -880,6 +957,11 @@
       <c r="O8" t="n">
         <v>6</v>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -894,29 +976,35 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>386000</v>
+          <t>Electrical Equipment &amp; Parts</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>392,500 (13%)</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>0.23335</v>
+        <v>0.24457</v>
       </c>
       <c r="F9" t="n">
-        <v>1.381</v>
+        <v>1.301</v>
       </c>
       <c r="G9" t="n">
-        <v>9.25</v>
+        <v>9.41</v>
       </c>
       <c r="H9" t="n">
-        <v>0.38869</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1247</v>
-      </c>
-      <c r="J9" t="n">
-        <v>27.7</v>
+        <v>28.17</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>42.42%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>12.88%</t>
+        </is>
       </c>
       <c r="K9" t="n">
         <v>22.61</v>
@@ -933,52 +1021,63 @@
       <c r="O9" t="n">
         <v>6</v>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>003550.KS</t>
+          <t>033780.KS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LG Corp.</t>
+          <t>KT&amp;G Corporation</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>67500</v>
+          <t>Tobacco</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>123,500 (16%)</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>0.02465</v>
+        <v>0.15516</v>
       </c>
       <c r="F10" t="n">
-        <v>2.256</v>
+        <v>2.094</v>
       </c>
       <c r="G10" t="n">
-        <v>0.38</v>
+        <v>1.44</v>
       </c>
       <c r="H10" t="n">
-        <v>0.028670002</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.01948</v>
-      </c>
-      <c r="J10" t="n">
-        <v>18.18</v>
+        <v>10.92</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>12.49%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>5.67%</t>
+        </is>
       </c>
       <c r="K10" t="n">
-        <v>35.81</v>
+        <v>28.25</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
@@ -986,49 +1085,60 @@
       <c r="O10" t="n">
         <v>6</v>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>079550.KS</t>
+          <t>003550.KS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LIG Nex1 Co., Ltd.</t>
+          <t>LG Corp.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>427000</v>
+          <t>Consumer Electronics</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>67,900 (33%)</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>0.35267</v>
+        <v>0.02266</v>
       </c>
       <c r="F11" t="n">
-        <v>0.844</v>
+        <v>2.056</v>
       </c>
       <c r="G11" t="n">
-        <v>7.69</v>
+        <v>0.39</v>
       </c>
       <c r="H11" t="n">
-        <v>0.18923001</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.028889999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>41.97</v>
+        <v>18.29</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>3.68%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2.34%</t>
+        </is>
       </c>
       <c r="K11" t="n">
-        <v>19.2</v>
+        <v>35.81</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
@@ -1039,46 +1149,57 @@
       <c r="O11" t="n">
         <v>6</v>
       </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>010120.KS</t>
+          <t>079550.KS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LS ELECTRIC Co., Ltd.</t>
+          <t>LIG Nex1 Co., Ltd.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>254500</v>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>445,500 (-4%)</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6460399999999999</v>
+        <v>0.34008</v>
       </c>
       <c r="F12" t="n">
-        <v>1.661</v>
+        <v>0.858</v>
       </c>
       <c r="G12" t="n">
-        <v>4.11</v>
+        <v>8.02</v>
       </c>
       <c r="H12" t="n">
-        <v>0.13372</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.05909</v>
-      </c>
-      <c r="J12" t="n">
-        <v>31.51</v>
+        <v>43.79</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20.42%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>3.15%</t>
+        </is>
       </c>
       <c r="K12" t="n">
-        <v>8.94</v>
+        <v>19.2</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1092,50 +1213,63 @@
       <c r="O12" t="n">
         <v>6</v>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>443060.KS</t>
+          <t>010120.KS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HDHMS</t>
+          <t>LS ELECTRIC Co., Ltd.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>160300</v>
+          <t>Electrical Equipment &amp; Parts</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>259,500 (-4%)</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>0.032</v>
+        <v>0.7225499999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>2.416</v>
+        <v>1.779</v>
       </c>
       <c r="G13" t="n">
-        <v>9.210000000000001</v>
+        <v>4.19</v>
       </c>
       <c r="H13" t="n">
-        <v>0.51682997</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>30.22</v>
+        <v>32.12</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>12.77%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>5.59%</t>
+        </is>
       </c>
       <c r="K13" t="n">
-        <v>59.77</v>
+        <v>8.94</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
       </c>
       <c r="M13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
@@ -1143,6 +1277,11 @@
       <c r="O13" t="n">
         <v>6</v>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1157,11 +1296,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>95100</v>
+          <t>Furnishings, Fixtures &amp; Appliances</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>91,600 (9%)</t>
+        </is>
       </c>
       <c r="E14" t="n">
         <v>0.46334</v>
@@ -1170,16 +1311,20 @@
         <v>0.9429999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.19385</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.09368</v>
-      </c>
-      <c r="J14" t="n">
-        <v>12.13</v>
+        <v>11.68</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>19.38%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>9.37%</t>
+        </is>
       </c>
       <c r="K14" t="n">
         <v>12.68</v>
@@ -1196,6 +1341,11 @@
       <c r="O14" t="n">
         <v>6</v>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1210,29 +1360,35 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1016000</v>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,026,000 (29%)</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>0.13629</v>
+        <v>0.12584</v>
       </c>
       <c r="F15" t="n">
-        <v>1.432</v>
+        <v>1.454</v>
       </c>
       <c r="G15" t="n">
-        <v>6.63</v>
+        <v>6.7</v>
       </c>
       <c r="H15" t="n">
-        <v>0.104490004</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.049429998</v>
-      </c>
-      <c r="J15" t="n">
-        <v>66.75</v>
+        <v>67.41</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>12.02%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>5.84%</t>
+        </is>
       </c>
       <c r="K15" t="n">
         <v>26.37</v>
@@ -1249,46 +1405,57 @@
       <c r="O15" t="n">
         <v>5</v>
       </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>068270.KS</t>
+          <t>028260.KS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Celltrion, Inc.</t>
+          <t>Samsung C&amp;T Corporation</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>152700</v>
+          <t>Engineering &amp; Construction</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>150,500 (17%)</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>0.12473</v>
+        <v>0.10542</v>
       </c>
       <c r="F16" t="n">
-        <v>1.752</v>
+        <v>1.392</v>
       </c>
       <c r="G16" t="n">
-        <v>1.88</v>
+        <v>0.79</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02414</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="J16" t="n">
-        <v>78.06999999999999</v>
+        <v>11.04</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>7.2%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2.83%</t>
+        </is>
       </c>
       <c r="K16" t="n">
-        <v>6.51</v>
+        <v>13.75</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1302,49 +1469,60 @@
       <c r="O16" t="n">
         <v>5</v>
       </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>028260.KS</t>
+          <t>005935.KS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Samsung C&amp;T Corporation</t>
+          <t>Samsung Electronics Co., Ltd.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>142000</v>
+          <t>Consumer Electronics</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>44,450 (43%)</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>0.12377</v>
+        <v>0.02741</v>
       </c>
       <c r="F17" t="n">
-        <v>1.368</v>
+        <v>2.467</v>
       </c>
       <c r="G17" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07185999999999999</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.02898</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10.42</v>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>9.23%</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>4.15%</t>
+        </is>
       </c>
       <c r="K17" t="n">
-        <v>13.75</v>
+        <v>36.2</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -1355,49 +1533,60 @@
       <c r="O17" t="n">
         <v>5</v>
       </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>005935.KS</t>
+          <t>068270.KS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Samsung Electronics Co., Ltd.</t>
+          <t>Celltrion, Inc.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>44900</v>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>155,600 (45%)</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>0.02741</v>
+        <v>0.12918</v>
       </c>
       <c r="F18" t="n">
-        <v>2.467</v>
+        <v>1.605</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09228</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.04153</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
+        <v>79.55</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2.95%</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
       </c>
       <c r="K18" t="n">
-        <v>36.2</v>
+        <v>6.51</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
@@ -1408,6 +1597,11 @@
       <c r="O18" t="n">
         <v>5</v>
       </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1422,11 +1616,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>183100</v>
+          <t>Internet Content &amp; Information</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>183,800 (48%)</t>
+        </is>
       </c>
       <c r="E19" t="n">
         <v>0.15712</v>
@@ -1435,16 +1631,20 @@
         <v>1.262</v>
       </c>
       <c r="G19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06847</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.03404</v>
-      </c>
-      <c r="J19" t="n">
-        <v>14.42</v>
+        <v>14.47</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>6.85%</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
       </c>
       <c r="K19" t="n">
         <v>18.87</v>
@@ -1461,6 +1661,11 @@
       <c r="O19" t="n">
         <v>5</v>
       </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1475,27 +1680,35 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>179900</v>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>181,900 (57%)</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>1.291</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>1.30144</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.793</v>
+      </c>
       <c r="G20" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1169</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.027980002</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.78</v>
+        <v>3.82</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>11.69%</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
       </c>
       <c r="K20" t="n">
         <v>31.54</v>
@@ -1512,112 +1725,139 @@
       <c r="O20" t="n">
         <v>5</v>
       </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>009540.KS</t>
+          <t>011200.KS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HD Korea Shipbuilding &amp; Offshore Engineering Co., Ltd.</t>
+          <t>HMM Co.,Ltd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>288500</v>
+          <t>Marine Shipping</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21,750 (4%)</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>0.15497</v>
+        <v>0.15324</v>
       </c>
       <c r="F21" t="n">
-        <v>1.082</v>
+        <v>6.5</v>
       </c>
       <c r="G21" t="n">
-        <v>1.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0.13858</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.03681</v>
-      </c>
-      <c r="J21" t="n">
-        <v>17.4</v>
+        <v>4.35</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>16.06%</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>7.53%</t>
+        </is>
       </c>
       <c r="K21" t="n">
-        <v>6.96</v>
+        <v>26.28</v>
       </c>
       <c r="L21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
       </c>
       <c r="N21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>5</v>
       </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>011200.KS</t>
+          <t>009540.KS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HMM Co.,Ltd</t>
+          <t>HD Korea Shipbuilding &amp; Offshore Engineering Co., Ltd.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>22200</v>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>296,000 (15%)</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>0.15324</v>
+        <v>0.15497</v>
       </c>
       <c r="F22" t="n">
-        <v>6.5</v>
+        <v>1.082</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>1.89</v>
       </c>
       <c r="H22" t="n">
-        <v>0.16061</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.07527</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.44</v>
+        <v>17.85</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>13.86%</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>3.68%</t>
+        </is>
       </c>
       <c r="K22" t="n">
-        <v>26.28</v>
+        <v>6.96</v>
       </c>
       <c r="L22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
       </c>
       <c r="N22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>5</v>
       </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1632,11 +1872,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>323000</v>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>344,000 (64%)</t>
+        </is>
       </c>
       <c r="E23" t="n">
         <v>0.11078</v>
@@ -1645,16 +1887,20 @@
         <v>11.576</v>
       </c>
       <c r="G23" t="n">
-        <v>62.91</v>
+        <v>67</v>
       </c>
       <c r="H23" t="n">
-        <v>0.34687</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.09347</v>
-      </c>
-      <c r="J23" t="n">
-        <v>275.6</v>
+        <v>293.52</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>34.69%</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>9.35%</t>
+        </is>
       </c>
       <c r="K23" t="n">
         <v>37.64</v>
@@ -1671,6 +1917,11 @@
       <c r="O23" t="n">
         <v>5</v>
       </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1685,11 +1936,13 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>379500</v>
+          <t>Electronic Gaming &amp; Multimedia</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>381,000 (27%)</t>
+        </is>
       </c>
       <c r="E24" t="n">
         <v>0.03306</v>
@@ -1698,16 +1951,20 @@
         <v>6.376</v>
       </c>
       <c r="G24" t="n">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="H24" t="n">
-        <v>0.21030001</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.10288999</v>
-      </c>
-      <c r="J24" t="n">
-        <v>13.27</v>
+        <v>13.32</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>21.03%</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>10.29%</t>
+        </is>
       </c>
       <c r="K24" t="n">
         <v>125.03</v>
@@ -1724,6 +1981,11 @@
       <c r="O24" t="n">
         <v>5</v>
       </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1738,11 +2000,13 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>125400</v>
+          <t>Railroads</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>141,200 (13%)</t>
+        </is>
       </c>
       <c r="E25" t="n">
         <v>0.12027</v>
@@ -1751,16 +2015,20 @@
         <v>1.293</v>
       </c>
       <c r="G25" t="n">
-        <v>6.69</v>
+        <v>7.54</v>
       </c>
       <c r="H25" t="n">
-        <v>0.26398</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.07427</v>
-      </c>
-      <c r="J25" t="n">
-        <v>33.64</v>
+        <v>37.88</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>26.4%</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>7.43%</t>
+        </is>
       </c>
       <c r="K25" t="n">
         <v>27.47</v>
@@ -1777,52 +2045,63 @@
       <c r="O25" t="n">
         <v>5</v>
       </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>003555.KS</t>
+          <t>018260.KS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LG Corp.</t>
+          <t>Samsung SDS Co., Ltd.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>57300</v>
+          <t>Information Technology Services</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>133,700 (31%)</t>
+        </is>
       </c>
       <c r="E26" t="n">
-        <v>0.02465</v>
+        <v>0.0975</v>
       </c>
       <c r="F26" t="n">
-        <v>2.256</v>
+        <v>3.487</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="H26" t="n">
-        <v>0.028670002</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.01948</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
+        <v>13.66</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>8.42%</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>4.62%</t>
+        </is>
       </c>
       <c r="K26" t="n">
-        <v>35.81</v>
+        <v>18.25</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
       </c>
       <c r="M26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
@@ -1830,52 +2109,63 @@
       <c r="O26" t="n">
         <v>5</v>
       </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>009150.KS</t>
+          <t>003555.KS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Samsung Electro-Mechanics Co., Ltd.</t>
+          <t>LG Corp.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>117300</v>
+          <t>Consumer Electronics</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>57,000 (N/A)</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>0.18146</v>
+        <v>0.02266</v>
       </c>
       <c r="F27" t="n">
-        <v>1.927</v>
+        <v>2.056</v>
       </c>
       <c r="G27" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07802000000000001</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.03758</v>
-      </c>
-      <c r="J27" t="n">
-        <v>13.05</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>3.68%</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2.34%</t>
+        </is>
       </c>
       <c r="K27" t="n">
-        <v>10.11</v>
+        <v>35.81</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
       <c r="M27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
@@ -1883,46 +2173,57 @@
       <c r="O27" t="n">
         <v>5</v>
       </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>003230.KS</t>
+          <t>009150.KS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Samyang Foods Co., Ltd.</t>
+          <t>Samsung Electro-Mechanics Co., Ltd.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1143000</v>
+          <t>Electronic Components</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>118,800 (47%)</t>
+        </is>
       </c>
       <c r="E28" t="n">
-        <v>0.38749</v>
+        <v>0.2287</v>
       </c>
       <c r="F28" t="n">
-        <v>1.429</v>
+        <v>1.817</v>
       </c>
       <c r="G28" t="n">
-        <v>10.44</v>
+        <v>1.02</v>
       </c>
       <c r="H28" t="n">
-        <v>0.39171</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.17101</v>
-      </c>
-      <c r="J28" t="n">
-        <v>31.34</v>
+        <v>13.22</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>7.16%</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>3.69%</t>
+        </is>
       </c>
       <c r="K28" t="n">
-        <v>23.92</v>
+        <v>10.11</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1936,11 +2237,16 @@
       <c r="O28" t="n">
         <v>5</v>
       </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>090435.KS</t>
+          <t>090430.KS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1950,29 +2256,35 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>40450</v>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>136,300 (14%)</t>
+        </is>
       </c>
       <c r="E29" t="n">
-        <v>0.08265</v>
+        <v>0.07518</v>
       </c>
       <c r="F29" t="n">
-        <v>1.583</v>
+        <v>1.632</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="H29" t="n">
-        <v>0.11798</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.02175</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
+        <v>15.85</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>12.49%</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2.58%</t>
+        </is>
       </c>
       <c r="K29" t="n">
         <v>7.82</v>
@@ -1989,11 +2301,16 @@
       <c r="O29" t="n">
         <v>5</v>
       </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>090430.KS</t>
+          <t>090435.KS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2003,29 +2320,35 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>135300</v>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>40,750 (N/A)</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>0.08265</v>
+        <v>0.07518</v>
       </c>
       <c r="F30" t="n">
-        <v>1.583</v>
+        <v>1.632</v>
       </c>
       <c r="G30" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.11798</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.02175</v>
-      </c>
-      <c r="J30" t="n">
-        <v>15.73</v>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>12.49%</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2.58%</t>
+        </is>
       </c>
       <c r="K30" t="n">
         <v>7.82</v>
@@ -2042,46 +2365,57 @@
       <c r="O30" t="n">
         <v>5</v>
       </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>326030.KS</t>
+          <t>003230.KS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SK Biopharmaceuticals Co., Ltd.</t>
+          <t>Samyang Foods Co., Ltd.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>89800</v>
+          <t>Packaged Foods</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1,129,000 (13%)</t>
+        </is>
       </c>
       <c r="E31" t="n">
-        <v>0.21076</v>
+        <v>0.38749</v>
       </c>
       <c r="F31" t="n">
-        <v>1.838</v>
+        <v>1.429</v>
       </c>
       <c r="G31" t="n">
-        <v>12.87</v>
+        <v>10.31</v>
       </c>
       <c r="H31" t="n">
-        <v>0.50862</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.07786</v>
-      </c>
-      <c r="J31" t="n">
-        <v>29.21</v>
+        <v>30.96</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>39.17%</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>17.1%</t>
+        </is>
       </c>
       <c r="K31" t="n">
-        <v>9.02</v>
+        <v>23.92</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2090,150 +2424,191 @@
         <v>0</v>
       </c>
       <c r="N31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
         <v>5</v>
       </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>000720.KS</t>
+          <t>326030.KS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hyundai Engineering &amp; Construction Co.,Ltd.</t>
+          <t>SK Biopharmaceuticals Co., Ltd.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>54200</v>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>90,800 (51%)</t>
+        </is>
       </c>
       <c r="E32" t="n">
-        <v>0.34719</v>
+        <v>0.21076</v>
       </c>
       <c r="F32" t="n">
-        <v>1.438</v>
+        <v>1.838</v>
       </c>
       <c r="G32" t="n">
-        <v>0.76</v>
+        <v>13.02</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.07615</v>
-      </c>
-      <c r="I32" t="n">
-        <v>-0.0311</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
+        <v>29.54</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>50.86%</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>7.79%</t>
+        </is>
       </c>
       <c r="K32" t="n">
-        <v>-12.47</v>
+        <v>9.02</v>
       </c>
       <c r="L32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>5</v>
       </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>005387.KS</t>
+          <t>000720.KS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hyundai Motor Company</t>
+          <t>Hyundai Engineering &amp; Construction Co.,Ltd.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>146700</v>
+          <t>Engineering &amp; Construction</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>62,000 (-18%)</t>
+        </is>
       </c>
       <c r="E33" t="n">
-        <v>1.291</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
+        <v>0.34719</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.438</v>
+      </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1169</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.027980002</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-7.61%</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>-3.11%</t>
+        </is>
       </c>
       <c r="K33" t="n">
-        <v>31.54</v>
+        <v>-12.47</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
       </c>
       <c r="M33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="b">
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>105560.KS</t>
+          <t>005387.KS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>KB Financial Group Inc.</t>
+          <t>Hyundai Motor Company</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>99000</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>146,500 (N/A)</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1.30144</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.793</v>
+      </c>
       <c r="G34" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.09505</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.0075499997</v>
-      </c>
-      <c r="J34" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>11.69%</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>31.54</v>
+      </c>
       <c r="L34" t="b">
         <v>1</v>
       </c>
@@ -2246,45 +2621,52 @@
       <c r="O34" t="n">
         <v>4</v>
       </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>005389.KS</t>
+          <t>105560.KS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hyundai Motor Company</t>
+          <t>KB Financial Group Inc.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>146000</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1.291</v>
-      </c>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>101,900 (11%)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1169</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.027980002</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>31.54</v>
-      </c>
+        <v>7.91</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="b">
         <v>1</v>
       </c>
@@ -2297,46 +2679,57 @@
       <c r="O35" t="n">
         <v>4</v>
       </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>012450.KS</t>
+          <t>005389.KS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hanwha Aerospace Co., Ltd.</t>
+          <t>Hyundai Motor Company</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>830000</v>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>146,500 (N/A)</t>
+        </is>
       </c>
       <c r="E36" t="n">
-        <v>1.2298</v>
+        <v>1.30144</v>
       </c>
       <c r="F36" t="n">
-        <v>0.876</v>
+        <v>0.793</v>
       </c>
       <c r="G36" t="n">
-        <v>7.67</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.36983</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.04161</v>
-      </c>
-      <c r="J36" t="n">
-        <v>18.04</v>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>11.69%</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
       </c>
       <c r="K36" t="n">
-        <v>7.14</v>
+        <v>31.54</v>
       </c>
       <c r="L36" t="b">
         <v>1</v>
@@ -2350,6 +2743,11 @@
       <c r="O36" t="n">
         <v>4</v>
       </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2364,27 +2762,35 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>145800</v>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>146,100 (N/A)</t>
+        </is>
       </c>
       <c r="E37" t="n">
-        <v>1.291</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
+        <v>1.30144</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.793</v>
+      </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1169</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.027980002</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>11.69%</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
       </c>
       <c r="K37" t="n">
         <v>31.54</v>
@@ -2401,46 +2807,57 @@
       <c r="O37" t="n">
         <v>4</v>
       </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>02826K.KS</t>
+          <t>012450.KS</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Samsung C&amp;T Corporation</t>
+          <t>Hanwha Aerospace Co., Ltd.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>107100</v>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>887,000 (9%)</t>
+        </is>
       </c>
       <c r="E38" t="n">
-        <v>0.12377</v>
+        <v>1.2298</v>
       </c>
       <c r="F38" t="n">
-        <v>1.368</v>
+        <v>0.876</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07185999999999999</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.02898</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
+        <v>19.28</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>36.98%</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
       </c>
       <c r="K38" t="n">
-        <v>13.75</v>
+        <v>7.14</v>
       </c>
       <c r="L38" t="b">
         <v>1</v>
@@ -2454,45 +2871,58 @@
       <c r="O38" t="n">
         <v>4</v>
       </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>000810.KS</t>
+          <t>02826K.KS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
+          <t>Samsung C&amp;T Corporation</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>380000</v>
+          <t>Engineering &amp; Construction</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>110,900 (N/A)</t>
+        </is>
       </c>
       <c r="E39" t="n">
-        <v>0.02008</v>
+        <v>0.10542</v>
       </c>
       <c r="F39" t="n">
-        <v>27.211</v>
+        <v>1.392</v>
       </c>
       <c r="G39" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.13084</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.01844</v>
-      </c>
-      <c r="J39" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>7.2%</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2.83%</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>13.75</v>
+      </c>
       <c r="L39" t="b">
         <v>1</v>
       </c>
@@ -2500,11 +2930,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
         <v>4</v>
       </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2519,11 +2954,13 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>233500</v>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>237,000 (53%)</t>
+        </is>
       </c>
       <c r="E40" t="n">
         <v>0.44088</v>
@@ -2535,13 +2972,17 @@
         <v>0.32</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0112</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.01314</v>
-      </c>
-      <c r="J40" t="n">
-        <v>16.16</v>
+        <v>16.4</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
       </c>
       <c r="K40" t="n">
         <v>0.43</v>
@@ -2558,43 +2999,54 @@
       <c r="O40" t="n">
         <v>4</v>
       </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>033780.KS</t>
+          <t>024110.KS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>KT&amp;G Corporation</t>
+          <t>Industrial Bank of Korea</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>119400</v>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15,470 (1%)</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
-        <v>2.085</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="K41" t="n">
-        <v>28.25</v>
-      </c>
+        <v>0.36</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>8.04%</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0.58%</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="b">
         <v>0</v>
@@ -2605,46 +3057,63 @@
       <c r="O41" t="n">
         <v>4</v>
       </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>024110.KS</t>
+          <t>035720.KS</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Industrial Bank of Korea</t>
+          <t>Kakao Corp.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>15360</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+          <t>Internet Content &amp; Information</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>40,950 (15%)</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.28667</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.62</v>
+      </c>
       <c r="G42" t="n">
-        <v>0.36</v>
+        <v>1.77</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08037999999999999</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.00577</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+        <v>325</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-0.21%</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>2.26</v>
+      </c>
       <c r="L42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="b">
         <v>1</v>
@@ -2652,44 +3121,57 @@
       <c r="O42" t="n">
         <v>4</v>
       </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>018260.KS</t>
+          <t>272210.KS</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Samsung SDS Co., Ltd.</t>
+          <t>Hanwha Systems Co., Ltd.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>130500</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>46,100 (-12%)</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.19713</v>
+      </c>
       <c r="F43" t="n">
-        <v>3.488</v>
+        <v>0.835</v>
       </c>
       <c r="G43" t="n">
-        <v>1.08</v>
+        <v>3.46</v>
       </c>
       <c r="H43" t="n">
-        <v>0.08427</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.046240002</v>
-      </c>
-      <c r="J43" t="n">
-        <v>13.33</v>
+        <v>19.03</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>16.14%</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2.03%</t>
+        </is>
       </c>
       <c r="K43" t="n">
-        <v>18.25</v>
+        <v>9.83</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -2703,6 +3185,11 @@
       <c r="O43" t="n">
         <v>4</v>
       </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2717,29 +3204,35 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>53300</v>
+          <t>Electronic Components</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>53,200 (N/A)</t>
+        </is>
       </c>
       <c r="E44" t="n">
-        <v>0.18146</v>
+        <v>0.2287</v>
       </c>
       <c r="F44" t="n">
-        <v>1.927</v>
+        <v>1.817</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.07802000000000001</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.03758</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>7.16%</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>3.69%</t>
+        </is>
       </c>
       <c r="K44" t="n">
         <v>10.11</v>
@@ -2756,52 +3249,63 @@
       <c r="O44" t="n">
         <v>4</v>
       </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>272210.KS</t>
+          <t>000100.KS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hanwha Systems Co., Ltd.</t>
+          <t>Yuhan Corporation</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>45250</v>
+          <t>Drug Manufacturers - Specialty &amp; Generic</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>105,200 (36%)</t>
+        </is>
       </c>
       <c r="E45" t="n">
-        <v>0.19713</v>
+        <v>0.17158</v>
       </c>
       <c r="F45" t="n">
-        <v>0.835</v>
+        <v>2.057</v>
       </c>
       <c r="G45" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H45" t="n">
-        <v>0.16141</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.02029</v>
-      </c>
-      <c r="J45" t="n">
-        <v>18.68</v>
+        <v>111.56</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2.58%</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
       </c>
       <c r="K45" t="n">
-        <v>9.83</v>
+        <v>3.73</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
       <c r="M45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="b">
         <v>1</v>
@@ -2809,6 +3313,11 @@
       <c r="O45" t="n">
         <v>4</v>
       </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2823,29 +3332,35 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>97400</v>
+          <t>Drug Manufacturers - Specialty &amp; Generic</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>97,700 (N/A)</t>
+        </is>
       </c>
       <c r="E46" t="n">
-        <v>0.14161</v>
+        <v>0.17158</v>
       </c>
       <c r="F46" t="n">
-        <v>2.197</v>
+        <v>2.057</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02595</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.01192</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2.58%</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
       </c>
       <c r="K46" t="n">
         <v>3.73</v>
@@ -2862,49 +3377,60 @@
       <c r="O46" t="n">
         <v>4</v>
       </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>000100.KS</t>
+          <t>000725.KS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Yuhan Corporation</t>
+          <t>Hyundai Engineering &amp; Construction Co.,Ltd.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>104000</v>
+          <t>Engineering &amp; Construction</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>60,700 (N/A)</t>
+        </is>
       </c>
       <c r="E47" t="n">
-        <v>0.14161</v>
+        <v>0.34719</v>
       </c>
       <c r="F47" t="n">
-        <v>2.197</v>
+        <v>1.438</v>
       </c>
       <c r="G47" t="n">
-        <v>3.71</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.02595</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.01192</v>
-      </c>
-      <c r="J47" t="n">
-        <v>110.29</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-7.61%</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-3.11%</t>
+        </is>
       </c>
       <c r="K47" t="n">
-        <v>3.73</v>
+        <v>-12.47</v>
       </c>
       <c r="L47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="b">
         <v>1</v>
@@ -2915,6 +3441,11 @@
       <c r="O47" t="n">
         <v>4</v>
       </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2929,29 +3460,35 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>389000</v>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>412,000 (7%)</t>
+        </is>
       </c>
       <c r="E48" t="n">
-        <v>0.20759</v>
+        <v>0.19318</v>
       </c>
       <c r="F48" t="n">
-        <v>0.882</v>
+        <v>0.901</v>
       </c>
       <c r="G48" t="n">
-        <v>6.05</v>
+        <v>6.41</v>
       </c>
       <c r="H48" t="n">
-        <v>0.11391</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.0239</v>
-      </c>
-      <c r="J48" t="n">
-        <v>55.56</v>
+        <v>58.85</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>15.9%</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>3.62%</t>
+        </is>
       </c>
       <c r="K48" t="n">
         <v>4.7</v>
@@ -2968,6 +3505,11 @@
       <c r="O48" t="n">
         <v>3</v>
       </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2982,25 +3524,31 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>55100</v>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>56,500 (23%)</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
-        <v>0.081429996</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.00649</v>
-      </c>
-      <c r="J49" t="n">
-        <v>6.53</v>
+        <v>6.69</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>8.14%</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="b">
@@ -3015,35 +3563,50 @@
       <c r="O49" t="n">
         <v>3</v>
       </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>086790.KS</t>
+          <t>138040.KS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hana Financial Group Inc.</t>
+          <t>Meritz Financial Group Inc.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>68700</v>
+          <t>Asset Management</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>109,500 (23%)</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5.44</v>
+        <v>1.95</v>
+      </c>
+      <c r="H50" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>22.19%</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2.14%</t>
+        </is>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="b">
@@ -3058,39 +3621,52 @@
       <c r="O50" t="n">
         <v>3</v>
       </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>138040.KS</t>
+          <t>000810.KS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Meritz Financial Group Inc.</t>
+          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>109200</v>
+          <t>Insurance - Property &amp; Casualty</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>395,000 (13%)</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>1.447</v>
+      </c>
       <c r="G51" t="n">
-        <v>1.94</v>
+        <v>1.08</v>
       </c>
       <c r="H51" t="n">
-        <v>0.22194</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.021429999</v>
-      </c>
-      <c r="J51" t="n">
-        <v>8.91</v>
+        <v>8.1</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>12.51%</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="b">
@@ -3100,108 +3676,126 @@
         <v>0</v>
       </c>
       <c r="N51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>3</v>
       </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>000815.KS</t>
+          <t>316140.KS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
+          <t>Woori Financial Group Inc.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>284000</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.02008</v>
-      </c>
-      <c r="F52" t="n">
-        <v>27.211</v>
-      </c>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>18,290 (11%)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
-        <v>0.13084</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.01844</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
+        <v>4.63</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>8.6%</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0.58%</t>
+        </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="b">
         <v>0</v>
       </c>
       <c r="N52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
         <v>3</v>
       </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>035720.KS</t>
+          <t>030200.KS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Kakao Corp.</t>
+          <t>KT Corporation</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>37400</v>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>51,300 (21%)</t>
+        </is>
       </c>
       <c r="E53" t="n">
-        <v>0.30354</v>
+        <v>0.60909</v>
       </c>
       <c r="F53" t="n">
-        <v>1.255</v>
+        <v>1.101</v>
       </c>
       <c r="G53" t="n">
-        <v>1.62</v>
+        <v>0.78</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.01163</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.01097</v>
-      </c>
-      <c r="J53" t="n">
-        <v>296.83</v>
+        <v>26.83</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>1.46%</t>
+        </is>
       </c>
       <c r="K53" t="n">
-        <v>2.26</v>
+        <v>73.66</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
       </c>
       <c r="M53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="b">
         <v>1</v>
@@ -3209,41 +3803,58 @@
       <c r="O53" t="n">
         <v>3</v>
       </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>316140.KS</t>
+          <t>352820.KS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Woori Financial Group Inc.</t>
+          <t>HYBE Co., Ltd.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>18070</v>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>286,500 (3%)</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.30349</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.179</v>
+      </c>
       <c r="G54" t="n">
-        <v>0.39</v>
+        <v>3.7</v>
       </c>
       <c r="H54" t="n">
-        <v>0.08603</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.0057599996</v>
-      </c>
-      <c r="J54" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+        <v>1273.33</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2.21%</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>3.73</v>
+      </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
@@ -3256,6 +3867,11 @@
       <c r="O54" t="n">
         <v>3</v>
       </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3270,11 +3886,13 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>160200</v>
+          <t>Electrical Equipment &amp; Parts</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>160,200 (53%)</t>
+        </is>
       </c>
       <c r="E55" t="n">
         <v>0.54954</v>
@@ -3286,13 +3904,17 @@
         <v>0.55</v>
       </c>
       <c r="H55" t="n">
-        <v>0.00087</v>
-      </c>
-      <c r="I55" t="n">
-        <v>-0.00775</v>
-      </c>
-      <c r="J55" t="n">
         <v>18.26</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0.09%</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>-0.78%</t>
+        </is>
       </c>
       <c r="K55" t="n">
         <v>1.08</v>
@@ -3309,46 +3931,57 @@
       <c r="O55" t="n">
         <v>3</v>
       </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>030200.KS</t>
+          <t>066570.KS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KT Corporation</t>
+          <t>LG Electronics Inc.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>50000</v>
+          <t>Consumer Electronics</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>69,000 (50%)</t>
+        </is>
       </c>
       <c r="E56" t="n">
-        <v>0.60909</v>
+        <v>0.5779299999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>1.101</v>
+        <v>1.301</v>
       </c>
       <c r="G56" t="n">
-        <v>0.76</v>
+        <v>0.59</v>
       </c>
       <c r="H56" t="n">
-        <v>0.03201</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.0146</v>
-      </c>
-      <c r="J56" t="n">
-        <v>26.15</v>
+        <v>33.89</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>4.56%</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>3.28%</t>
+        </is>
       </c>
       <c r="K56" t="n">
-        <v>73.66</v>
+        <v>5.99</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -3362,46 +3995,57 @@
       <c r="O56" t="n">
         <v>3</v>
       </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>352820.KS</t>
+          <t>017670.KS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HYBE Co., Ltd.</t>
+          <t>SK Telecom Co., Ltd.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>285500</v>
+          <t>Telecom Services</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>51,800 (24%)</t>
+        </is>
       </c>
       <c r="E57" t="n">
-        <v>0.31056</v>
+        <v>0.57792</v>
       </c>
       <c r="F57" t="n">
-        <v>2.151</v>
+        <v>0.879</v>
       </c>
       <c r="G57" t="n">
-        <v>3.69</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.00104</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.02125</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1268.89</v>
+        <v>8.960000000000001</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>11.37%</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>3.81%</t>
+        </is>
       </c>
       <c r="K57" t="n">
-        <v>3.73</v>
+        <v>4.55</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -3415,44 +4059,57 @@
       <c r="O57" t="n">
         <v>3</v>
       </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>066570.KS</t>
+          <t>180640.KS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LG Electronics Inc.</t>
+          <t>Hanjin Kal</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>70000</v>
+          <t>Lodging</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>135,000 (N/A)</t>
+        </is>
       </c>
       <c r="E58" t="n">
-        <v>0.5779299999999999</v>
+        <v>0.19537</v>
       </c>
       <c r="F58" t="n">
-        <v>3.298</v>
+        <v>0.802</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>2.83</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04652</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>34.38</v>
+        <v>18.16</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>16.61%</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0.78%</t>
+        </is>
       </c>
       <c r="K58" t="n">
-        <v>5.99</v>
+        <v>0.71</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -3466,46 +4123,57 @@
       <c r="O58" t="n">
         <v>3</v>
       </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>017670.KS</t>
+          <t>047810.KS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SK Telecom Co., Ltd.</t>
+          <t>Korea Aerospace Industries, Ltd.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>50700</v>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>89,100 (6%)</t>
+        </is>
       </c>
       <c r="E59" t="n">
-        <v>0.57792</v>
+        <v>0.7362099999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>0.879</v>
+        <v>1.188</v>
       </c>
       <c r="G59" t="n">
-        <v>0.92</v>
+        <v>5.09</v>
       </c>
       <c r="H59" t="n">
-        <v>0.11368</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.03808</v>
-      </c>
-      <c r="J59" t="n">
-        <v>8.77</v>
+        <v>50.48</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>9.95%</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>1.88%</t>
+        </is>
       </c>
       <c r="K59" t="n">
-        <v>4.55</v>
+        <v>7.21</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
@@ -3519,46 +4187,57 @@
       <c r="O59" t="n">
         <v>3</v>
       </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>047810.KS</t>
+          <t>003490.KS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Korea Aerospace Industries, Ltd.</t>
+          <t>Korean Airlines Co.,Ltd.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>87600</v>
+          <t>Airlines</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>22,550 (38%)</t>
+        </is>
       </c>
       <c r="E60" t="n">
-        <v>0.62214</v>
+        <v>1.80876</v>
       </c>
       <c r="F60" t="n">
-        <v>1.107</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>5.01</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
-        <v>0.102110006</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.01984</v>
-      </c>
-      <c r="J60" t="n">
-        <v>49.63</v>
+        <v>6.32</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>12.62%</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
       </c>
       <c r="K60" t="n">
-        <v>7.21</v>
+        <v>4.1</v>
       </c>
       <c r="L60" t="b">
         <v>0</v>
@@ -3572,52 +4251,63 @@
       <c r="O60" t="n">
         <v>3</v>
       </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>18064K.KS</t>
+          <t>047050.KS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hanjin Kal</t>
+          <t>Posco International Corporation</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>37600</v>
+          <t>Conglomerates</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>48,700 (27%)</t>
+        </is>
       </c>
       <c r="E61" t="n">
-        <v>0.19537</v>
+        <v>0.8582299999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>0.802</v>
+        <v>1.221</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="H61" t="n">
-        <v>0.16610001</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.00784</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
+        <v>16.13</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>7.21%</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>4.03%</t>
+        </is>
       </c>
       <c r="K61" t="n">
-        <v>0.71</v>
+        <v>3.84</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
       </c>
       <c r="M61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="b">
         <v>1</v>
@@ -3625,46 +4315,57 @@
       <c r="O61" t="n">
         <v>3</v>
       </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>003490.KS</t>
+          <t>18064K.KS</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Korean Airlines Co.,Ltd.</t>
+          <t>Hanjin Kal</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>22600</v>
+          <t>Lodging</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>44,100 (N/A)</t>
+        </is>
       </c>
       <c r="E62" t="n">
-        <v>1.80876</v>
+        <v>0.19537</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.802</v>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.12618</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.03181</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6.34</v>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>16.61%</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0.78%</t>
+        </is>
       </c>
       <c r="K62" t="n">
-        <v>4.1</v>
+        <v>0.71</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -3678,47 +4379,56 @@
       <c r="O62" t="n">
         <v>3</v>
       </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>180640.KS</t>
+          <t>006800.KS</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Hanjin Kal</t>
+          <t>Mirae Asset Securities Co., Ltd.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>120100</v>
+          <t>Capital Markets</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13,400 (-1%)</t>
+        </is>
       </c>
       <c r="E63" t="n">
-        <v>0.19537</v>
+        <v>7.05972</v>
       </c>
       <c r="F63" t="n">
-        <v>0.802</v>
+        <v>1.326</v>
       </c>
       <c r="G63" t="n">
-        <v>2.52</v>
+        <v>0.65</v>
       </c>
       <c r="H63" t="n">
-        <v>0.16610001</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.00784</v>
-      </c>
-      <c r="J63" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.71</v>
-      </c>
+        <v>8.67</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>8.58%</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="b">
         <v>0</v>
       </c>
@@ -3731,153 +4441,182 @@
       <c r="O63" t="n">
         <v>3</v>
       </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>047050.KS</t>
+          <t>015760.KS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Posco International Corporation</t>
+          <t>Korea Electric Power Corporation</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>45900</v>
+          <t>Utilities - Regulated Electric</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>30,600 (3%)</t>
+        </is>
       </c>
       <c r="E64" t="n">
-        <v>0.8582299999999999</v>
+        <v>3.29545</v>
       </c>
       <c r="F64" t="n">
-        <v>1.221</v>
+        <v>0.457</v>
       </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>0.49</v>
       </c>
       <c r="H64" t="n">
-        <v>0.07205</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.04034</v>
-      </c>
-      <c r="J64" t="n">
-        <v>15.2</v>
+        <v>5.63</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>9.21%</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2.15%</t>
+        </is>
       </c>
       <c r="K64" t="n">
-        <v>3.84</v>
+        <v>1.76</v>
       </c>
       <c r="L64" t="b">
         <v>0</v>
       </c>
       <c r="M64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>006800.KS</t>
+          <t>032830.KS</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mirae Asset Securities Co., Ltd.</t>
+          <t>Samsung Life Insurance Co., Ltd.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>13590</v>
+          <t>Insurance - Life</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>97,000 (14%)</t>
+        </is>
       </c>
       <c r="E65" t="n">
-        <v>7.05972</v>
+        <v>0.72934</v>
       </c>
       <c r="F65" t="n">
-        <v>1.326</v>
+        <v>42.656</v>
       </c>
       <c r="G65" t="n">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="H65" t="n">
-        <v>0.085760005</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.0075199995</v>
-      </c>
-      <c r="J65" t="n">
-        <v>8.800000000000001</v>
+        <v>8.27</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>5.87%</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="b">
         <v>0</v>
       </c>
       <c r="M65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>015760.KS</t>
+          <t>000815.KS</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Korea Electric Power Corporation</t>
+          <t>Samsung Fire &amp; Marine Insurance Co., Ltd.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>30700</v>
-      </c>
-      <c r="E66" t="n">
-        <v>3.29545</v>
-      </c>
+          <t>Insurance - Property &amp; Casualty</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>291,000 (N/A)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>0.457</v>
+        <v>1.447</v>
       </c>
       <c r="G66" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.092130005</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.02149</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>12.51%</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="b">
         <v>0</v>
@@ -3888,57 +4627,75 @@
       <c r="O66" t="n">
         <v>2</v>
       </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>032830.KS</t>
+          <t>010140.KS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Samsung Life Insurance Co., Ltd.</t>
+          <t>Samsung Heavy Industries Co., Ltd.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>92000</v>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>16,350 (12%)</t>
+        </is>
       </c>
       <c r="E67" t="n">
-        <v>0.72934</v>
+        <v>0.89724</v>
       </c>
       <c r="F67" t="n">
-        <v>42.656</v>
+        <v>0.773</v>
       </c>
       <c r="G67" t="n">
-        <v>0.54</v>
+        <v>3.68</v>
       </c>
       <c r="H67" t="n">
-        <v>0.05865</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.00316</v>
-      </c>
-      <c r="J67" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
+        <v>218</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>3.64%</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>2.36</v>
+      </c>
       <c r="L67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
         <v>2</v>
       </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3953,27 +4710,33 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>778000</v>
+          <t>Other Industrial Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>743,000 (-15%)</t>
+        </is>
       </c>
       <c r="E68" t="n">
         <v>0.37948</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="H68" t="n">
-        <v>0.028080001</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.03911</v>
-      </c>
-      <c r="J68" t="n">
-        <v>82</v>
+        <v>78.31</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2.81%</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>3.91%</t>
+        </is>
       </c>
       <c r="K68" t="n">
         <v>6.14</v>
@@ -3990,6 +4753,11 @@
       <c r="O68" t="n">
         <v>2</v>
       </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4004,11 +4772,13 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>96800</v>
+          <t>Electrical Equipment &amp; Parts</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>98,400 (N/A)</t>
+        </is>
       </c>
       <c r="E69" t="n">
         <v>0.54954</v>
@@ -4020,13 +4790,17 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.00087</v>
-      </c>
-      <c r="I69" t="n">
-        <v>-0.00775</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>0.09%</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>-0.78%</t>
+        </is>
       </c>
       <c r="K69" t="n">
         <v>1.08</v>
@@ -4043,47 +4817,52 @@
       <c r="O69" t="n">
         <v>2</v>
       </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>010140.KS</t>
+          <t>323410.KS</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Samsung Heavy Industries Co., Ltd.</t>
+          <t>KakaoBank Corp.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>14430</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.94511</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.779</v>
-      </c>
+          <t>Banks - Regional</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>23,550 (15%)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>3.25</v>
+        <v>1.72</v>
       </c>
       <c r="H70" t="n">
-        <v>0.01505</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.01916</v>
-      </c>
-      <c r="J70" t="n">
-        <v>192.4</v>
-      </c>
-      <c r="K70" t="n">
-        <v>2.36</v>
-      </c>
+        <v>25.49</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>6.95%</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="b">
         <v>1</v>
       </c>
@@ -4096,6 +4875,11 @@
       <c r="O70" t="n">
         <v>2</v>
       </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4110,27 +4894,35 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>34500</v>
+          <t>Consumer Electronics</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>34,450 (N/A)</t>
+        </is>
       </c>
       <c r="E71" t="n">
         <v>0.5779299999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>3.298</v>
+        <v>1.301</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.04652</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>4.56%</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>3.28%</t>
+        </is>
       </c>
       <c r="K71" t="n">
         <v>5.99</v>
@@ -4147,43 +4939,60 @@
       <c r="O71" t="n">
         <v>2</v>
       </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>323410.KS</t>
+          <t>003495.KS</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>KakaoBank Corp.</t>
+          <t>Korean Airlines Co.,Ltd.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>22750</v>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+          <t>Airlines</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>23,150 (N/A)</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1.80876</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="G72" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.06952999999999999</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="J72" t="n">
-        <v>24.62</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>12.62%</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>4.1</v>
+      </c>
       <c r="L72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="b">
         <v>0</v>
@@ -4194,46 +5003,57 @@
       <c r="O72" t="n">
         <v>2</v>
       </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>003495.KS</t>
+          <t>034730.KS</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Korean Airlines Co.,Ltd.</t>
+          <t>SK Inc.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>22550</v>
+          <t>Conglomerates</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>140,100 (34%)</t>
+        </is>
       </c>
       <c r="E73" t="n">
-        <v>1.80876</v>
+        <v>1.09823</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.899</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="H73" t="n">
-        <v>0.12618</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.03181</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0.61%</t>
+        </is>
       </c>
       <c r="K73" t="n">
-        <v>4.1</v>
+        <v>0.64</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
@@ -4247,46 +5067,57 @@
       <c r="O73" t="n">
         <v>2</v>
       </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>034730.KS</t>
+          <t>010620.KS</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SK Inc.</t>
+          <t>Hd Hyundai Mipo Co.,Ltd.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>137500</v>
+          <t>Marine Shipping</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>189,300 (4%)</t>
+        </is>
       </c>
       <c r="E74" t="n">
-        <v>1.09823</v>
+        <v>0.08208</v>
       </c>
       <c r="F74" t="n">
-        <v>0.899</v>
+        <v>1.01</v>
       </c>
       <c r="G74" t="n">
-        <v>0.3</v>
+        <v>3.69</v>
       </c>
       <c r="H74" t="n">
-        <v>0.00441</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.00611</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
+        <v>71.54000000000001</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>7.85%</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
       </c>
       <c r="K74" t="n">
-        <v>0.64</v>
+        <v>4.55</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -4300,47 +5131,56 @@
       <c r="O74" t="n">
         <v>2</v>
       </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>010620.KS</t>
+          <t>00680K.KS</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Hd Hyundai Mipo Co.,Ltd.</t>
+          <t>Mirae Asset Securities Co., Ltd.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>182600</v>
+          <t>Capital Markets</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5,080 (N/A)</t>
+        </is>
       </c>
       <c r="E75" t="n">
-        <v>0.08208</v>
+        <v>7.05972</v>
       </c>
       <c r="F75" t="n">
-        <v>1.01</v>
+        <v>1.326</v>
       </c>
       <c r="G75" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.07851</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.02099</v>
-      </c>
-      <c r="J75" t="n">
-        <v>69.01000000000001</v>
-      </c>
-      <c r="K75" t="n">
-        <v>4.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>8.58%</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="b">
         <v>0</v>
       </c>
@@ -4353,6 +5193,11 @@
       <c r="O75" t="n">
         <v>2</v>
       </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4367,11 +5212,13 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>5900</v>
+          <t>Capital Markets</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5,790 (N/A)</t>
+        </is>
       </c>
       <c r="E76" t="n">
         <v>7.05972</v>
@@ -4383,13 +5230,17 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.085760005</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.0075199995</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>8.58%</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="b">
@@ -4404,45 +5255,58 @@
       <c r="O76" t="n">
         <v>2</v>
       </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>00680K.KS</t>
+          <t>267250.KS</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Mirae Asset Securities Co., Ltd.</t>
+          <t>HD Hyundai Co., Ltd.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>5200</v>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>86,900 (27%)</t>
+        </is>
       </c>
       <c r="E77" t="n">
-        <v>7.05972</v>
+        <v>0.64408</v>
       </c>
       <c r="F77" t="n">
-        <v>1.326</v>
+        <v>1.099</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="H77" t="n">
-        <v>0.085760005</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.0075199995</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+        <v>12.06</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>7.78%</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2.62%</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>3.07</v>
+      </c>
       <c r="L77" t="b">
         <v>0</v>
       </c>
@@ -4455,46 +5319,57 @@
       <c r="O77" t="n">
         <v>2</v>
       </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>267250.KS</t>
+          <t>298040.KS</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HD Hyundai Co., Ltd.</t>
+          <t>Hyosung Heavy Industries Corporation</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Energy</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>84000</v>
+          <t>Specialty Industrial Machinery</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>609,000 (-7%)</t>
+        </is>
       </c>
       <c r="E78" t="n">
-        <v>0.64408</v>
+        <v>0.53737</v>
       </c>
       <c r="F78" t="n">
-        <v>1.099</v>
+        <v>1.021</v>
       </c>
       <c r="G78" t="n">
-        <v>0.68</v>
+        <v>2.97</v>
       </c>
       <c r="H78" t="n">
-        <v>0.077800006</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.02619</v>
-      </c>
-      <c r="J78" t="n">
-        <v>11.66</v>
+        <v>25.47</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>17.98%</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>3.63%</t>
+        </is>
       </c>
       <c r="K78" t="n">
-        <v>3.07</v>
+        <v>3.61</v>
       </c>
       <c r="L78" t="b">
         <v>0</v>
@@ -4508,40 +5383,57 @@
       <c r="O78" t="n">
         <v>2</v>
       </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>010950.KS</t>
+          <t>373220.KS</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S-Oil Corporation</t>
+          <t>LG Energy Solution, Ltd.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Energy</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>50700</v>
+          <t>Electrical Equipment &amp; Parts</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>272,500 (48%)</t>
+        </is>
       </c>
       <c r="E79" t="n">
-        <v>0.8976900000000001</v>
-      </c>
-      <c r="F79" t="inlineStr"/>
+        <v>0.56323</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.275</v>
+      </c>
       <c r="G79" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>0</v>
+        <v>3.02</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1.22%</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
       </c>
       <c r="K79" t="n">
-        <v>1.49</v>
+        <v>1.02</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
@@ -4553,48 +5445,59 @@
         <v>1</v>
       </c>
       <c r="O79" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>298040.KS</t>
+          <t>042660.KS</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hyosung Heavy Industries Corporation</t>
+          <t>Hanwha Ocean Co., Ltd.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>600000</v>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>78,800 (-2%)</t>
+        </is>
       </c>
       <c r="E80" t="n">
-        <v>0.52686</v>
+        <v>1.11115</v>
       </c>
       <c r="F80" t="n">
-        <v>0.982</v>
+        <v>1.119</v>
       </c>
       <c r="G80" t="n">
-        <v>2.93</v>
+        <v>4.97</v>
       </c>
       <c r="H80" t="n">
-        <v>0.13594</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.03463</v>
-      </c>
-      <c r="J80" t="n">
-        <v>25.1</v>
+        <v>47.82</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>14.66%</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>1.68%</t>
+        </is>
       </c>
       <c r="K80" t="n">
-        <v>3.61</v>
+        <v>1.39</v>
       </c>
       <c r="L80" t="b">
         <v>0</v>
@@ -4603,42 +5506,63 @@
         <v>0</v>
       </c>
       <c r="N80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>005940.KS</t>
+          <t>034020.KS</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NH Investment &amp; Securities Co., Ltd.</t>
+          <t>Doosan Enerbility Co., Ltd.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>16150</v>
-      </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+          <t>Specialty Industrial Machinery</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>42,350 (-11%)</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.57882</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.105</v>
+      </c>
       <c r="G81" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+        <v>3.62</v>
+      </c>
+      <c r="H81" t="n">
+        <v>243.39</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>3.09</v>
+      </c>
       <c r="L81" t="b">
         <v>0</v>
       </c>
@@ -4649,48 +5573,59 @@
         <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>373220.KS</t>
+          <t>051910.KS</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LG Energy Solution, Ltd.</t>
+          <t>LG Chem, Ltd.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>268000</v>
+          <t>Chemicals</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>182,900 (73%)</t>
+        </is>
       </c>
       <c r="E82" t="n">
-        <v>0.56324</v>
+        <v>0.6112</v>
       </c>
       <c r="F82" t="n">
-        <v>4.653</v>
+        <v>1.291</v>
       </c>
       <c r="G82" t="n">
-        <v>2.97</v>
+        <v>0.43</v>
       </c>
       <c r="H82" t="n">
-        <v>0.012200001</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.00587</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
       </c>
       <c r="K82" t="n">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="L82" t="b">
         <v>0</v>
@@ -4699,51 +5634,62 @@
         <v>0</v>
       </c>
       <c r="N82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
         <v>1</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>042660.KS</t>
+          <t>096770.KS</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hanwha Ocean Co., Ltd.</t>
+          <t>SK Innovation Co., Ltd.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>76000</v>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>82,000 (54%)</t>
+        </is>
       </c>
       <c r="E83" t="n">
-        <v>1.11115</v>
+        <v>1.18864</v>
       </c>
       <c r="F83" t="n">
-        <v>1.119</v>
+        <v>0.962</v>
       </c>
       <c r="G83" t="n">
-        <v>4.79</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
-        <v>0.14661999</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.01679</v>
-      </c>
-      <c r="J83" t="n">
-        <v>46.12</v>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-6.81%</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
       </c>
       <c r="K83" t="n">
-        <v>1.39</v>
+        <v>0.21</v>
       </c>
       <c r="L83" t="b">
         <v>0</v>
@@ -4756,47 +5702,58 @@
       </c>
       <c r="O83" t="n">
         <v>1</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>034020.KS</t>
+          <t>247540.KQ</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Doosan Enerbility Co., Ltd.</t>
+          <t>Ecopro BM. Co., Ltd.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>40800</v>
+          <t>Electrical Equipment &amp; Parts</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>81,200 (30%)</t>
+        </is>
       </c>
       <c r="E84" t="n">
-        <v>0.57882</v>
+        <v>1.1671</v>
       </c>
       <c r="F84" t="n">
-        <v>1.105</v>
+        <v>1.143</v>
       </c>
       <c r="G84" t="n">
-        <v>3.49</v>
+        <v>4.64</v>
       </c>
       <c r="H84" t="n">
-        <v>0.00978</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.01845</v>
-      </c>
-      <c r="J84" t="n">
-        <v>234.48</v>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-3.55%</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>-0.54%</t>
+        </is>
       </c>
       <c r="K84" t="n">
-        <v>3.09</v>
+        <v>-0.4</v>
       </c>
       <c r="L84" t="b">
         <v>0</v>
@@ -4809,47 +5766,58 @@
       </c>
       <c r="O84" t="n">
         <v>1</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>051910.KS</t>
+          <t>000155.KS</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LG Chem, Ltd.</t>
+          <t>Doosan Corporation</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>182400</v>
+          <t>Conglomerates</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>316,000 (N/A)</t>
+        </is>
       </c>
       <c r="E85" t="n">
-        <v>0.5703900000000001</v>
+        <v>0.7641</v>
       </c>
       <c r="F85" t="n">
-        <v>1.319</v>
+        <v>1.08</v>
       </c>
       <c r="G85" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.0074</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.00669</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2.62%</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2.09%</t>
+        </is>
       </c>
       <c r="K85" t="n">
-        <v>0.96</v>
+        <v>2.04</v>
       </c>
       <c r="L85" t="b">
         <v>0</v>
@@ -4858,51 +5826,62 @@
         <v>0</v>
       </c>
       <c r="N85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
         <v>1</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>096770.KS</t>
+          <t>003670.KS</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SK Innovation Co., Ltd.</t>
+          <t>Posco Future M Co., Ltd.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Energy</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>81100</v>
+          <t>Electrical Equipment &amp; Parts</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>100,100 (32%)</t>
+        </is>
       </c>
       <c r="E86" t="n">
-        <v>1.18864</v>
+        <v>1.10231</v>
       </c>
       <c r="F86" t="n">
-        <v>0.962</v>
+        <v>1.182</v>
       </c>
       <c r="G86" t="n">
-        <v>0.49</v>
+        <v>2.61</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.06811</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.00014999999</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-7.87%</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>-0.17%</t>
+        </is>
       </c>
       <c r="K86" t="n">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="L86" t="b">
         <v>0</v>
@@ -4911,51 +5890,62 @@
         <v>0</v>
       </c>
       <c r="N86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
         <v>1</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>247540.KQ</t>
+          <t>000150.KS</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ecopro BM. Co., Ltd.</t>
+          <t>Doosan Corporation</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>83600</v>
+          <t>Conglomerates</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>474,000 (2%)</t>
+        </is>
       </c>
       <c r="E87" t="n">
-        <v>0.9821800000000001</v>
+        <v>0.7641</v>
       </c>
       <c r="F87" t="n">
-        <v>1.062</v>
+        <v>1.08</v>
       </c>
       <c r="G87" t="n">
-        <v>4.77</v>
+        <v>5.7</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.03272</v>
-      </c>
-      <c r="I87" t="n">
-        <v>-0.00491</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2.62%</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2.09%</t>
+        </is>
       </c>
       <c r="K87" t="n">
-        <v>-0.4</v>
+        <v>2.04</v>
       </c>
       <c r="L87" t="b">
         <v>0</v>
@@ -4968,47 +5958,58 @@
       </c>
       <c r="O87" t="n">
         <v>1</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>strong_buy</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>003670.KS</t>
+          <t>000157.KS</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Posco Future M Co., Ltd.</t>
+          <t>Doosan Corporation</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>100100</v>
+          <t>Conglomerates</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>370,000 (N/A)</t>
+        </is>
       </c>
       <c r="E88" t="n">
-        <v>1.10231</v>
+        <v>0.7641</v>
       </c>
       <c r="F88" t="n">
-        <v>1.182</v>
+        <v>1.08</v>
       </c>
       <c r="G88" t="n">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.07869</v>
-      </c>
-      <c r="I88" t="n">
-        <v>-0.00166</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2.62%</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2.09%</t>
+        </is>
       </c>
       <c r="K88" t="n">
-        <v>0.01</v>
+        <v>2.04</v>
       </c>
       <c r="L88" t="b">
         <v>0</v>
@@ -5021,47 +6022,58 @@
       </c>
       <c r="O88" t="n">
         <v>1</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>000150.KS</t>
+          <t>028300.KQ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Doosan Corporation</t>
+          <t>HLB Co., Ltd.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>439000</v>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>52,700 (N/A)</t>
+        </is>
       </c>
       <c r="E89" t="n">
-        <v>0.7641</v>
+        <v>0.26838</v>
       </c>
       <c r="F89" t="n">
-        <v>1.08</v>
+        <v>0.667</v>
       </c>
       <c r="G89" t="n">
-        <v>5.28</v>
+        <v>11.99</v>
       </c>
       <c r="H89" t="n">
-        <v>0.02617</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.02093</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-32.99%</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>-8.23%</t>
+        </is>
       </c>
       <c r="K89" t="n">
-        <v>2.04</v>
+        <v>-11.04</v>
       </c>
       <c r="L89" t="b">
         <v>0</v>
@@ -5070,51 +6082,62 @@
         <v>0</v>
       </c>
       <c r="N89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
         <v>1</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>028300.KQ</t>
+          <t>03473K.KS</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>HLB Co., Ltd.</t>
+          <t>SK Inc.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>53300</v>
+          <t>Conglomerates</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>124,700 (N/A)</t>
+        </is>
       </c>
       <c r="E90" t="n">
-        <v>0.24537</v>
+        <v>1.09823</v>
       </c>
       <c r="F90" t="n">
-        <v>1.072</v>
+        <v>0.899</v>
       </c>
       <c r="G90" t="n">
-        <v>12.12</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.17047001</v>
-      </c>
-      <c r="I90" t="n">
-        <v>-0.09075</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0.61%</t>
+        </is>
       </c>
       <c r="K90" t="n">
-        <v>-11.04</v>
+        <v>0.64</v>
       </c>
       <c r="L90" t="b">
         <v>0</v>
@@ -5123,51 +6146,54 @@
         <v>0</v>
       </c>
       <c r="N90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="n">
         <v>1</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>000157.KS</t>
+          <t>048260.KQ</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Doosan Corporation</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>331500</v>
-      </c>
+          <t>048260.KQ</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
-        <v>0.7641</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.02617</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.02093</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K91" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="L91" t="b">
         <v>0</v>
@@ -5176,51 +6202,50 @@
         <v>0</v>
       </c>
       <c r="N91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>000155.KS</t>
+          <t>086790.KS</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Doosan Corporation</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>280000</v>
-      </c>
+          <t>Hana Financial Group Inc.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
-        <v>0.7641</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.02617</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.02093</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K92" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
@@ -5229,51 +6254,58 @@
         <v>0</v>
       </c>
       <c r="N92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>03473K.KS</t>
+          <t>051915.KS</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SK Inc.</t>
+          <t>LG Chem, Ltd.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>121900</v>
+          <t>Chemicals</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>91,500 (N/A)</t>
+        </is>
       </c>
       <c r="E93" t="n">
-        <v>1.09823</v>
+        <v>0.6112</v>
       </c>
       <c r="F93" t="n">
-        <v>0.899</v>
+        <v>1.291</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.00441</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.00611</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
       </c>
       <c r="K93" t="n">
-        <v>0.64</v>
+        <v>0.96</v>
       </c>
       <c r="L93" t="b">
         <v>0</v>
@@ -5282,45 +6314,54 @@
         <v>0</v>
       </c>
       <c r="N93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>010955.KS</t>
+          <t>022100.KQ</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>S-Oil Corporation</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Energy</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>34250</v>
-      </c>
+          <t>022100.KQ</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>0.8976900000000001</v>
-      </c>
-      <c r="F94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
       <c r="G94" t="n">
         <v>0</v>
       </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>0</v>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K94" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="L94" t="b">
         <v>0</v>
@@ -5329,42 +6370,59 @@
         <v>0</v>
       </c>
       <c r="N94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>005830.KS</t>
+          <t>096775.KS</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DB Insurance Co., Ltd.</t>
+          <t>SK Innovation Co., Ltd.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Financial Services</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>96600</v>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>56,700 (N/A)</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1.18864</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.962</v>
+      </c>
       <c r="G95" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-6.81%</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>0.21</v>
+      </c>
       <c r="L95" t="b">
         <v>0</v>
       </c>
@@ -5375,29 +6433,52 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>048260.KQ</t>
+          <t>091990.KQ</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>048260.KQ</t>
+          <t>091990.KQ</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
       <c r="L96" t="b">
         <v>0</v>
       </c>
@@ -5410,46 +6491,45 @@
       <c r="O96" t="n">
         <v>0</v>
       </c>
+      <c r="P96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>051915.KS</t>
+          <t>443060.KS</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>LG Chem, Ltd.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>92900</v>
-      </c>
+          <t>HDHMS</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>0.5703900000000001</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1.319</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.0074</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.00669</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K97" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -5463,46 +6543,45 @@
       <c r="O97" t="n">
         <v>0</v>
       </c>
+      <c r="P97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>096775.KS</t>
+          <t>010145.KS</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SK Innovation Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Energy</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>56200</v>
-      </c>
+          <t>010145.KS</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>1.18864</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.962</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.06811</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.00014999999</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K98" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="L98" t="b">
         <v>0</v>
@@ -5516,31 +6595,46 @@
       <c r="O98" t="n">
         <v>0</v>
       </c>
+      <c r="P98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>022100.KQ</t>
+          <t>010950.KS</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>022100.KQ</t>
+          <t>S-Oil Corporation</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
       <c r="G99" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
       <c r="L99" t="b">
         <v>0</v>
       </c>
@@ -5553,27 +6647,46 @@
       <c r="O99" t="n">
         <v>0</v>
       </c>
+      <c r="P99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>091990.KQ</t>
+          <t>010955.KS</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>091990.KQ</t>
+          <t>S-Oil Corporation</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
       <c r="L100" t="b">
         <v>0</v>
       </c>
@@ -5586,27 +6699,46 @@
       <c r="O100" t="n">
         <v>0</v>
       </c>
+      <c r="P100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>010145.KS</t>
+          <t>005830.KS</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>010145.KS</t>
+          <t>DB Insurance Co., Ltd.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
       <c r="L101" t="b">
         <v>0</v>
       </c>
@@ -5619,6 +6751,7 @@
       <c r="O101" t="n">
         <v>0</v>
       </c>
+      <c r="P101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
